--- a/TestData/ProductDetails.xlsx
+++ b/TestData/ProductDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d639b768260d5c15/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\FullStack\Workspace\AutomationTraingProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048C9715B40065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F44D76-783F-4F1C-838C-B0B0C6837138}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3EBD80-C76D-47EC-B248-FE83374C41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
